--- a/docassemble/Exp102/data/sources/Courts.xlsx
+++ b/docassemble/Exp102/data/sources/Courts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mylegalaid-my.sharepoint.com/personal/alsauber_mnlegalservices_org/Documents/Suffolk Docassemble/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mylegalaid-my.sharepoint.com/personal/alsauber_mnlegalservices_org/Documents/Suffolk Docassemble/Address Lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1313" documentId="8_{347881DA-E49C-4A8E-A509-535E45893E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F9759BD-86BF-4108-9C09-47E3B05B26D5}"/>
+  <xr:revisionPtr revIDLastSave="1429" documentId="8_{347881DA-E49C-4A8E-A509-535E45893E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B37B7A-F691-4C4F-B366-F133EFD687A5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{CD4733AD-22F5-40C1-A8D7-2640701DC5B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="573">
   <si>
     <t>McLeod</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>Lac Qui Parle County Courthouse</t>
   </si>
   <si>
-    <t>Lac Qui Parle</t>
-  </si>
-  <si>
     <t>600 Sixth Street</t>
   </si>
   <si>
@@ -1728,6 +1725,36 @@
   </si>
   <si>
     <t>District</t>
+  </si>
+  <si>
+    <t>Lac qui Parle</t>
+  </si>
+  <si>
+    <t>First Judicial District</t>
+  </si>
+  <si>
+    <t>Second Judicial District</t>
+  </si>
+  <si>
+    <t>Third Judicial District</t>
+  </si>
+  <si>
+    <t>Fourth Judicial District</t>
+  </si>
+  <si>
+    <t>Fifth Judicial District</t>
+  </si>
+  <si>
+    <t>Sixth Judicial District</t>
+  </si>
+  <si>
+    <t>Seventh Judicial District</t>
+  </si>
+  <si>
+    <t>Eighth Judicial District</t>
+  </si>
+  <si>
+    <t>Ninth Judicial District</t>
   </si>
 </sst>
 </file>
@@ -1769,9 +1796,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2088,9 +2114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE096597-2443-45EC-BCA8-7D7057695872}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2098,7 +2124,7 @@
     <col min="1" max="1" width="10.9296875" customWidth="1"/>
     <col min="2" max="2" width="43.1328125" customWidth="1"/>
     <col min="3" max="3" width="11.53125" customWidth="1"/>
-    <col min="4" max="4" width="7.265625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.59765625" customWidth="1"/>
     <col min="6" max="6" width="17.796875" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" customWidth="1"/>
@@ -2116,963 +2142,942 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" t="s">
         <v>546</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>547</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>549</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>550</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>551</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>552</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>553</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>554</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" t="s">
         <v>555</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>556</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>557</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" t="s">
         <v>558</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" t="s">
         <v>559</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" t="s">
         <v>560</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>561</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2">
+        <v>55318</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C2" t="s">
-        <v>563</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I2" t="s">
-        <v>500</v>
-      </c>
-      <c r="K2" t="s">
-        <v>529</v>
-      </c>
-      <c r="L2" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2">
-        <v>56431</v>
-      </c>
-      <c r="P2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D3" t="s">
+        <v>564</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
-      </c>
-      <c r="I3" t="s">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="N3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" t="s">
         <v>99</v>
       </c>
       <c r="O3">
-        <v>56501</v>
+        <v>55033</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D4" t="s">
+        <v>564</v>
       </c>
       <c r="H4" t="s">
-        <v>506</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>507</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>531</v>
-      </c>
-      <c r="L4" t="s">
-        <v>504</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="N4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" t="s">
         <v>99</v>
       </c>
       <c r="O4">
-        <v>56601</v>
+        <v>55066</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>563</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D5" t="s">
+        <v>564</v>
       </c>
       <c r="H5" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>356</v>
-      </c>
-      <c r="L5" t="s">
-        <v>535</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
         <v>99</v>
       </c>
       <c r="O5">
-        <v>56329</v>
+        <v>56057</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D6" t="s">
+        <v>564</v>
       </c>
       <c r="H6" t="s">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>377</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>521</v>
-      </c>
-      <c r="L6" t="s">
-        <v>537</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" t="s">
         <v>99</v>
       </c>
       <c r="O6">
-        <v>56278</v>
+        <v>55336</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>563</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D7" t="s">
+        <v>564</v>
       </c>
       <c r="H7" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
         <v>99</v>
       </c>
       <c r="O7">
-        <v>56002</v>
+        <v>55379</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D8" t="s">
+        <v>564</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>234</v>
+        <v>531</v>
       </c>
       <c r="M8" t="s">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
         <v>99</v>
       </c>
       <c r="O8">
-        <v>56073</v>
+        <v>55334</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>563</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
+        <v>562</v>
+      </c>
+      <c r="D9" t="s">
+        <v>564</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>308</v>
+        <v>509</v>
       </c>
       <c r="L9" t="s">
-        <v>307</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="M9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
       <c r="O9">
-        <v>55718</v>
+        <v>55118</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D10" t="s">
+        <v>564</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>508</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s">
         <v>99</v>
       </c>
       <c r="O10">
-        <v>55318</v>
+        <v>55124</v>
       </c>
       <c r="P10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>563</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>492</v>
-      </c>
-      <c r="I11" t="s">
-        <v>493</v>
+        <v>562</v>
+      </c>
+      <c r="D11" t="s">
+        <v>565</v>
       </c>
       <c r="K11" t="s">
-        <v>490</v>
-      </c>
-      <c r="L11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="N11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" t="s">
         <v>99</v>
       </c>
       <c r="O11">
-        <v>56484</v>
+        <v>55102</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>563</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>417</v>
-      </c>
-      <c r="I12" t="s">
-        <v>418</v>
+        <v>562</v>
+      </c>
+      <c r="D12" t="s">
+        <v>565</v>
       </c>
       <c r="K12" t="s">
-        <v>414</v>
-      </c>
-      <c r="L12" t="s">
-        <v>415</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="N12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M12" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s">
         <v>99</v>
       </c>
       <c r="O12">
-        <v>56265</v>
+        <v>55102</v>
       </c>
       <c r="P12" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>563</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D13" t="s">
+        <v>566</v>
       </c>
       <c r="H13" t="s">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>315</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N13" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" t="s">
         <v>99</v>
       </c>
       <c r="O13">
-        <v>56560</v>
+        <v>55955</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>563</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D14" t="s">
+        <v>566</v>
       </c>
       <c r="H14" t="s">
-        <v>484</v>
+        <v>182</v>
       </c>
       <c r="I14" t="s">
-        <v>485</v>
+        <v>183</v>
       </c>
       <c r="K14" t="s">
-        <v>481</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s">
-        <v>482</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="N14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" t="s">
         <v>99</v>
       </c>
       <c r="O14">
-        <v>56621</v>
+        <v>55965</v>
       </c>
       <c r="P14" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>563</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
+        <v>562</v>
+      </c>
+      <c r="D15" t="s">
+        <v>566</v>
       </c>
       <c r="H15" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>303</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="s">
+        <v>163</v>
+      </c>
+      <c r="N15" t="s">
         <v>99</v>
       </c>
       <c r="O15">
-        <v>55604</v>
+        <v>56007</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D16" t="s">
+        <v>566</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="I16" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s">
         <v>99</v>
       </c>
       <c r="O16">
-        <v>56101</v>
+        <v>55921</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>423</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D17" t="s">
+        <v>566</v>
       </c>
       <c r="H17" t="s">
-        <v>497</v>
+        <v>171</v>
       </c>
       <c r="I17" t="s">
-        <v>498</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>495</v>
-      </c>
-      <c r="L17" t="s">
-        <v>404</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="N17" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="M17" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s">
         <v>99</v>
       </c>
       <c r="O17">
-        <v>56401</v>
+        <v>55912</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>563</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D18" t="s">
+        <v>566</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>177</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>514</v>
       </c>
       <c r="M18" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="N18" t="s">
         <v>99</v>
       </c>
       <c r="O18">
-        <v>55033</v>
+        <v>55904</v>
       </c>
       <c r="P18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>563</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D19" t="s">
+        <v>566</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
         <v>99</v>
       </c>
       <c r="O19">
-        <v>55955</v>
+        <v>55021</v>
       </c>
       <c r="P19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>563</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D20" t="s">
+        <v>566</v>
       </c>
       <c r="H20" t="s">
-        <v>333</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" t="s">
+        <v>153</v>
+      </c>
+      <c r="N20" t="s">
         <v>99</v>
       </c>
       <c r="O20">
-        <v>56308</v>
+        <v>55060</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>563</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D21" t="s">
+        <v>566</v>
       </c>
       <c r="H21" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="I21" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>285</v>
+        <v>533</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N21" t="s">
         <v>99</v>
       </c>
       <c r="O21">
-        <v>56013</v>
+        <v>55981</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>563</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D22" t="s">
+        <v>566</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L22" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="N22" t="s">
         <v>99</v>
       </c>
       <c r="O22">
-        <v>55965</v>
+        <v>56093</v>
       </c>
       <c r="P22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>563</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D23" t="s">
+        <v>566</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="M23" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="N23" t="s">
         <v>99</v>
       </c>
       <c r="O23">
-        <v>56007</v>
+        <v>55987</v>
       </c>
       <c r="P23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>563</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D24" t="s">
+        <v>567</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
       </c>
       <c r="H24" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="N24" t="s">
         <v>99</v>
       </c>
       <c r="O24">
-        <v>55066</v>
+        <v>55487</v>
       </c>
       <c r="P24" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>563</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E25" t="s">
+        <v>198</v>
       </c>
       <c r="H25" t="s">
-        <v>373</v>
-      </c>
-      <c r="I25" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s">
-        <v>520</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="s">
+        <v>194</v>
+      </c>
+      <c r="N25" t="s">
         <v>99</v>
       </c>
       <c r="O25">
-        <v>56531</v>
+        <v>55487</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>563</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
+        <v>562</v>
+      </c>
+      <c r="D26" t="s">
+        <v>567</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>515</v>
       </c>
       <c r="L26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M26" t="s">
         <v>194</v>
@@ -3081,7 +3086,7 @@
         <v>99</v>
       </c>
       <c r="O26">
-        <v>55487</v>
+        <v>55401</v>
       </c>
       <c r="P26" t="s">
         <v>19</v>
@@ -3089,1555 +3094,1573 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>563</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D27" t="s">
+        <v>567</v>
+      </c>
+      <c r="E27" t="s">
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>190</v>
-      </c>
-      <c r="I27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N27" t="s">
         <v>99</v>
       </c>
       <c r="O27">
-        <v>55921</v>
+        <v>55487</v>
       </c>
       <c r="P27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>158</v>
       </c>
       <c r="C28" t="s">
-        <v>563</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D28" t="s">
+        <v>567</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
       </c>
       <c r="H28" t="s">
-        <v>488</v>
-      </c>
-      <c r="I28" t="s">
-        <v>489</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s">
-        <v>486</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="N28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="s">
+        <v>194</v>
+      </c>
+      <c r="N28" t="s">
         <v>99</v>
       </c>
       <c r="O28">
-        <v>56470</v>
+        <v>55487</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>563</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D29" t="s">
+        <v>567</v>
+      </c>
+      <c r="E29" t="s">
+        <v>218</v>
       </c>
       <c r="H29" t="s">
-        <v>502</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>503</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
-        <v>530</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="N29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="s">
+        <v>194</v>
+      </c>
+      <c r="N29" t="s">
         <v>99</v>
       </c>
       <c r="O29">
-        <v>55744</v>
+        <v>55487</v>
       </c>
       <c r="P29" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>563</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
       </c>
       <c r="H30" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>215</v>
+      </c>
+      <c r="L30" t="s">
+        <v>539</v>
       </c>
       <c r="M30" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="N30" t="s">
         <v>99</v>
       </c>
       <c r="O30">
-        <v>56143</v>
+        <v>55415</v>
       </c>
       <c r="P30" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>563</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D31" t="s">
+        <v>568</v>
       </c>
       <c r="H31" t="s">
-        <v>420</v>
+        <v>263</v>
       </c>
       <c r="I31" t="s">
-        <v>421</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>522</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="N31" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="s">
+        <v>262</v>
+      </c>
+      <c r="N31" t="s">
         <v>99</v>
       </c>
       <c r="O31">
-        <v>56201</v>
+        <v>56002</v>
       </c>
       <c r="P31" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>563</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D32" t="s">
+        <v>568</v>
       </c>
       <c r="H32" t="s">
-        <v>441</v>
+        <v>236</v>
       </c>
       <c r="I32" t="s">
-        <v>442</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>438</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>439</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="N32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="s">
+        <v>235</v>
+      </c>
+      <c r="N32" t="s">
         <v>99</v>
       </c>
       <c r="O32">
-        <v>56728</v>
+        <v>56073</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>563</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D33" t="s">
+        <v>568</v>
       </c>
       <c r="H33" t="s">
-        <v>452</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>453</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s">
-        <v>450</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="N33" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="s">
+        <v>252</v>
+      </c>
+      <c r="N33" t="s">
         <v>99</v>
       </c>
       <c r="O33">
-        <v>56649</v>
+        <v>56101</v>
       </c>
       <c r="P33" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="C34" t="s">
-        <v>563</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D34" t="s">
+        <v>568</v>
       </c>
       <c r="H34" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="I34" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>403</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>404</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="N34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
         <v>99</v>
       </c>
       <c r="O34">
-        <v>56256</v>
+        <v>56013</v>
       </c>
       <c r="P34" t="s">
-        <v>402</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>563</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
+        <v>562</v>
+      </c>
+      <c r="D35" t="s">
+        <v>568</v>
       </c>
       <c r="H35" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>299</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="N35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s">
         <v>99</v>
       </c>
       <c r="O35">
-        <v>55616</v>
+        <v>56143</v>
       </c>
       <c r="P35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>563</v>
-      </c>
-      <c r="D36">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D36" t="s">
+        <v>568</v>
       </c>
       <c r="H36" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="I36" t="s">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="K36" t="s">
-        <v>524</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s">
-        <v>446</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="N36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M36" t="s">
+        <v>223</v>
+      </c>
+      <c r="N36" t="s">
         <v>99</v>
       </c>
       <c r="O36">
-        <v>56623</v>
+        <v>56142</v>
       </c>
       <c r="P36" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>563</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D37" t="s">
+        <v>568</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="K37" t="s">
-        <v>508</v>
+        <v>226</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="N37" t="s">
         <v>99</v>
       </c>
       <c r="O37">
-        <v>56057</v>
+        <v>56258</v>
       </c>
       <c r="P37" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>563</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D38" t="s">
+        <v>568</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s">
-        <v>221</v>
-      </c>
-      <c r="L38" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s">
         <v>99</v>
       </c>
       <c r="O38">
-        <v>56142</v>
+        <v>56031</v>
       </c>
       <c r="P38" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>563</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D39" t="s">
+        <v>568</v>
       </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s">
-        <v>226</v>
+        <v>245</v>
+      </c>
+      <c r="L39" t="s">
+        <v>246</v>
       </c>
       <c r="M39" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="N39" t="s">
         <v>99</v>
       </c>
       <c r="O39">
-        <v>56258</v>
+        <v>56172</v>
       </c>
       <c r="P39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>410</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>563</v>
-      </c>
-      <c r="D40">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D40" t="s">
+        <v>568</v>
       </c>
       <c r="H40" t="s">
-        <v>477</v>
+        <v>240</v>
       </c>
       <c r="I40" t="s">
-        <v>478</v>
+        <v>241</v>
       </c>
       <c r="K40" t="s">
-        <v>476</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" t="s">
+        <v>239</v>
+      </c>
+      <c r="N40" t="s">
         <v>99</v>
       </c>
       <c r="O40">
-        <v>56557</v>
+        <v>56082</v>
       </c>
       <c r="P40" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
-      </c>
-      <c r="D41">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D41" t="s">
+        <v>568</v>
       </c>
       <c r="H41" t="s">
-        <v>457</v>
+        <v>274</v>
       </c>
       <c r="I41" t="s">
-        <v>458</v>
+        <v>275</v>
       </c>
       <c r="K41" t="s">
-        <v>454</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s">
-        <v>455</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N41" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M41" t="s">
+        <v>273</v>
+      </c>
+      <c r="N41" t="s">
         <v>99</v>
       </c>
       <c r="O41">
-        <v>56762</v>
+        <v>56187</v>
       </c>
       <c r="P41" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>563</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D42" t="s">
+        <v>568</v>
       </c>
       <c r="H42" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="I42" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="K42" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="N42" t="s">
         <v>99</v>
       </c>
       <c r="O42">
-        <v>56031</v>
+        <v>56164</v>
       </c>
       <c r="P42" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>563</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D43" t="s">
+        <v>568</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="K43" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="M43" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="N43" t="s">
         <v>99</v>
       </c>
       <c r="O43">
-        <v>55336</v>
+        <v>56283</v>
       </c>
       <c r="P43" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>382</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>563</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D44" t="s">
+        <v>568</v>
       </c>
       <c r="H44" t="s">
-        <v>436</v>
+        <v>268</v>
       </c>
       <c r="I44" t="s">
-        <v>437</v>
+        <v>269</v>
       </c>
       <c r="K44" t="s">
-        <v>434</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="N44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L44" t="s">
+        <v>266</v>
+      </c>
+      <c r="M44" t="s">
+        <v>267</v>
+      </c>
+      <c r="N44" t="s">
         <v>99</v>
       </c>
       <c r="O44">
-        <v>55355</v>
+        <v>56156</v>
       </c>
       <c r="P44" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>360</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>563</v>
-      </c>
-      <c r="D45">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D45" t="s">
+        <v>568</v>
       </c>
       <c r="H45" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>259</v>
       </c>
       <c r="K45" t="s">
-        <v>519</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="N45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L45" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" t="s">
+        <v>257</v>
+      </c>
+      <c r="N45" t="s">
         <v>99</v>
       </c>
       <c r="O45">
-        <v>56353</v>
+        <v>56081</v>
       </c>
       <c r="P45" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C46" t="s">
-        <v>563</v>
-      </c>
-      <c r="D46">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D46" t="s">
+        <v>569</v>
       </c>
       <c r="H46" t="s">
-        <v>349</v>
-      </c>
-      <c r="I46" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s">
-        <v>347</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="N46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" t="s">
+        <v>307</v>
+      </c>
+      <c r="M46" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46" t="s">
         <v>99</v>
       </c>
       <c r="O46">
-        <v>56345</v>
+        <v>55718</v>
       </c>
       <c r="P46" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s">
-        <v>563</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D47" t="s">
+        <v>569</v>
       </c>
       <c r="H47" t="s">
-        <v>171</v>
+        <v>305</v>
       </c>
       <c r="I47" t="s">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="K47" t="s">
-        <v>514</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s">
         <v>99</v>
       </c>
       <c r="O47">
-        <v>55912</v>
+        <v>55604</v>
       </c>
       <c r="P47" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s">
-        <v>563</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D48" t="s">
+        <v>569</v>
       </c>
       <c r="H48" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="I48" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="K48" t="s">
-        <v>245</v>
-      </c>
-      <c r="L48" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="N48" t="s">
         <v>99</v>
       </c>
       <c r="O48">
-        <v>56172</v>
+        <v>55616</v>
       </c>
       <c r="P48" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>542</v>
       </c>
       <c r="C49" t="s">
-        <v>563</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F49" t="s">
+        <v>288</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
-      </c>
-      <c r="I49" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="K49" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
       <c r="M49" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="N49" t="s">
         <v>99</v>
       </c>
       <c r="O49">
-        <v>56082</v>
+        <v>55792</v>
       </c>
       <c r="P49" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>544</v>
       </c>
       <c r="C50" t="s">
-        <v>563</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D50" t="s">
+        <v>569</v>
+      </c>
+      <c r="F50" t="s">
+        <v>292</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
-      </c>
-      <c r="I50" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="K50" t="s">
-        <v>271</v>
-      </c>
-      <c r="L50" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="N50" t="s">
         <v>99</v>
       </c>
       <c r="O50">
-        <v>56187</v>
+        <v>55802</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>409</v>
+        <v>543</v>
       </c>
       <c r="C51" t="s">
-        <v>563</v>
-      </c>
-      <c r="D51">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D51" t="s">
+        <v>569</v>
+      </c>
+      <c r="F51" t="s">
+        <v>290</v>
       </c>
       <c r="H51" t="s">
-        <v>474</v>
-      </c>
-      <c r="I51" t="s">
-        <v>475</v>
+        <v>291</v>
       </c>
       <c r="K51" t="s">
-        <v>528</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N51" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M51" t="s">
+        <v>37</v>
+      </c>
+      <c r="N51" t="s">
         <v>99</v>
       </c>
       <c r="O51">
-        <v>56510</v>
+        <v>55746</v>
       </c>
       <c r="P51" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>310</v>
       </c>
       <c r="C52" t="s">
-        <v>563</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D52" t="s">
+        <v>570</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s">
-        <v>515</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="N52" t="s">
         <v>99</v>
       </c>
       <c r="O52">
-        <v>55904</v>
+        <v>56501</v>
       </c>
       <c r="P52" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="C53" t="s">
-        <v>563</v>
-      </c>
-      <c r="D53">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D53" t="s">
+        <v>570</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="I53" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="K53" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s">
-        <v>324</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="N53" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="M53" t="s">
+        <v>357</v>
+      </c>
+      <c r="N53" t="s">
         <v>99</v>
       </c>
       <c r="O53">
-        <v>56537</v>
+        <v>56329</v>
       </c>
       <c r="P53" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>459</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
-        <v>563</v>
-      </c>
-      <c r="D54">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D54" t="s">
+        <v>570</v>
       </c>
       <c r="H54" t="s">
-        <v>461</v>
+        <v>317</v>
       </c>
       <c r="I54" t="s">
-        <v>462</v>
+        <v>318</v>
       </c>
       <c r="K54" t="s">
-        <v>525</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="N54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M54" t="s">
+        <v>316</v>
+      </c>
+      <c r="N54" t="s">
         <v>99</v>
       </c>
       <c r="O54">
-        <v>56701</v>
+        <v>56560</v>
       </c>
       <c r="P54" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="C55" t="s">
-        <v>563</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D55" t="s">
+        <v>570</v>
       </c>
       <c r="H55" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="I55" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="M55" t="s">
-        <v>25</v>
+        <v>332</v>
       </c>
       <c r="N55" t="s">
         <v>99</v>
       </c>
       <c r="O55">
-        <v>56164</v>
+        <v>56308</v>
       </c>
       <c r="P55" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="C56" t="s">
-        <v>563</v>
-      </c>
-      <c r="D56">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D56" t="s">
+        <v>570</v>
       </c>
       <c r="H56" t="s">
-        <v>471</v>
+        <v>362</v>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
+        <v>363</v>
       </c>
       <c r="K56" t="s">
-        <v>527</v>
-      </c>
-      <c r="L56" t="s">
-        <v>469</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="N56" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="M56" t="s">
+        <v>361</v>
+      </c>
+      <c r="N56" t="s">
         <v>99</v>
       </c>
       <c r="O56">
-        <v>56716</v>
+        <v>56353</v>
       </c>
       <c r="P56" t="s">
-        <v>467</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>563</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D57" t="s">
+        <v>570</v>
       </c>
       <c r="H57" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="I57" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="K57" t="s">
-        <v>392</v>
-      </c>
-      <c r="L57" t="s">
-        <v>539</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N57" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M57" t="s">
+        <v>348</v>
+      </c>
+      <c r="N57" t="s">
         <v>99</v>
       </c>
       <c r="O57">
-        <v>56334</v>
+        <v>56345</v>
       </c>
       <c r="P57" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>563</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
+        <v>562</v>
+      </c>
+      <c r="D58" t="s">
+        <v>570</v>
+      </c>
+      <c r="H58" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58" t="s">
+        <v>327</v>
       </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>323</v>
+      </c>
+      <c r="L58" t="s">
+        <v>324</v>
       </c>
       <c r="M58" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="N58" t="s">
         <v>99</v>
       </c>
       <c r="O58">
-        <v>55102</v>
+        <v>56537</v>
       </c>
       <c r="P58" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="C59" t="s">
-        <v>563</v>
-      </c>
-      <c r="D59">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D59" t="s">
+        <v>570</v>
       </c>
       <c r="H59" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="I59" t="s">
-        <v>466</v>
+        <v>355</v>
       </c>
       <c r="K59" t="s">
-        <v>526</v>
-      </c>
-      <c r="L59" t="s">
-        <v>463</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="N59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M59" t="s">
+        <v>353</v>
+      </c>
+      <c r="N59" t="s">
         <v>99</v>
       </c>
       <c r="O59">
-        <v>56750</v>
+        <v>56303</v>
       </c>
       <c r="P59" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="C60" t="s">
-        <v>563</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D60" t="s">
+        <v>570</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="K60" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
       <c r="M60" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="N60" t="s">
         <v>99</v>
       </c>
       <c r="O60">
-        <v>56283</v>
+        <v>56347</v>
       </c>
       <c r="P60" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>563</v>
-      </c>
-      <c r="D61">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D61" t="s">
+        <v>570</v>
       </c>
       <c r="H61" t="s">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="I61" t="s">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="K61" t="s">
-        <v>429</v>
-      </c>
-      <c r="L61" t="s">
-        <v>430</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="N61" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N61" t="s">
         <v>99</v>
       </c>
       <c r="O61">
-        <v>56277</v>
+        <v>56482</v>
       </c>
       <c r="P61" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="C62" t="s">
-        <v>563</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D62" t="s">
+        <v>571</v>
       </c>
       <c r="H62" t="s">
-        <v>147</v>
+        <v>376</v>
       </c>
       <c r="I62" t="s">
-        <v>148</v>
+        <v>377</v>
       </c>
       <c r="K62" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="L62" t="s">
-        <v>146</v>
+        <v>536</v>
       </c>
       <c r="M62" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="N62" t="s">
         <v>99</v>
       </c>
       <c r="O62">
-        <v>55021</v>
+        <v>56278</v>
       </c>
       <c r="P62" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>379</v>
       </c>
       <c r="C63" t="s">
-        <v>563</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D63" t="s">
+        <v>571</v>
       </c>
       <c r="H63" t="s">
-        <v>268</v>
+        <v>416</v>
       </c>
       <c r="I63" t="s">
-        <v>269</v>
+        <v>417</v>
       </c>
       <c r="K63" t="s">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="L63" t="s">
-        <v>266</v>
+        <v>414</v>
       </c>
       <c r="M63" t="s">
-        <v>267</v>
+        <v>415</v>
       </c>
       <c r="N63" t="s">
         <v>99</v>
       </c>
       <c r="O63">
-        <v>56156</v>
+        <v>56265</v>
       </c>
       <c r="P63" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s">
-        <v>563</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
+        <v>562</v>
+      </c>
+      <c r="D64" t="s">
+        <v>571</v>
       </c>
       <c r="H64" t="s">
-        <v>444</v>
+        <v>373</v>
       </c>
       <c r="I64" t="s">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="K64" t="s">
-        <v>523</v>
-      </c>
-      <c r="L64" t="s">
-        <v>443</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N64" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="s">
+        <v>372</v>
+      </c>
+      <c r="N64" t="s">
         <v>99</v>
       </c>
       <c r="O64">
-        <v>56751</v>
+        <v>56531</v>
       </c>
       <c r="P64" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>380</v>
       </c>
       <c r="C65" t="s">
-        <v>563</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D65" t="s">
+        <v>571</v>
       </c>
       <c r="H65" t="s">
-        <v>121</v>
+        <v>419</v>
       </c>
       <c r="I65" t="s">
-        <v>122</v>
+        <v>420</v>
       </c>
       <c r="K65" t="s">
-        <v>118</v>
-      </c>
-      <c r="L65" t="s">
-        <v>119</v>
+        <v>521</v>
       </c>
       <c r="M65" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
       <c r="N65" t="s">
         <v>99</v>
       </c>
       <c r="O65">
-        <v>55379</v>
+        <v>56201</v>
       </c>
       <c r="P65" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="C66" t="s">
+        <v>562</v>
+      </c>
+      <c r="D66" t="s">
+        <v>571</v>
+      </c>
+      <c r="H66" t="s">
+        <v>405</v>
+      </c>
+      <c r="I66" t="s">
+        <v>406</v>
+      </c>
+      <c r="K66" t="s">
+        <v>402</v>
+      </c>
+      <c r="L66" t="s">
+        <v>403</v>
+      </c>
+      <c r="M66" t="s">
+        <v>404</v>
+      </c>
+      <c r="N66" t="s">
+        <v>99</v>
+      </c>
+      <c r="O66">
+        <v>56256</v>
+      </c>
+      <c r="P66" t="s">
         <v>563</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>104</v>
-      </c>
-      <c r="I66" t="s">
-        <v>105</v>
-      </c>
-      <c r="K66" t="s">
-        <v>102</v>
-      </c>
-      <c r="L66" t="s">
-        <v>532</v>
-      </c>
-      <c r="M66" t="s">
-        <v>103</v>
-      </c>
-      <c r="N66" t="s">
-        <v>99</v>
-      </c>
-      <c r="O66">
-        <v>55334</v>
-      </c>
-      <c r="P66" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>543</v>
+        <v>382</v>
       </c>
       <c r="C67" t="s">
-        <v>563</v>
-      </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>288</v>
+        <v>562</v>
+      </c>
+      <c r="D67" t="s">
+        <v>571</v>
       </c>
       <c r="H67" t="s">
-        <v>289</v>
+        <v>435</v>
+      </c>
+      <c r="I67" t="s">
+        <v>436</v>
       </c>
       <c r="K67" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="M67" t="s">
-        <v>36</v>
+        <v>434</v>
       </c>
       <c r="N67" t="s">
         <v>99</v>
       </c>
       <c r="O67">
-        <v>55792</v>
+        <v>55355</v>
       </c>
       <c r="P67" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C68" t="s">
-        <v>563</v>
-      </c>
-      <c r="D68">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D68" t="s">
+        <v>571</v>
       </c>
       <c r="H68" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="I68" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="K68" t="s">
-        <v>352</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="N68" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L68" t="s">
+        <v>538</v>
+      </c>
+      <c r="M68" t="s">
+        <v>393</v>
+      </c>
+      <c r="N68" t="s">
         <v>99</v>
       </c>
       <c r="O68">
-        <v>56303</v>
+        <v>56334</v>
       </c>
       <c r="P68" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="C69" t="s">
-        <v>563</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D69" t="s">
+        <v>571</v>
       </c>
       <c r="H69" t="s">
-        <v>154</v>
+        <v>431</v>
       </c>
       <c r="I69" t="s">
-        <v>155</v>
+        <v>432</v>
       </c>
       <c r="K69" t="s">
-        <v>152</v>
+        <v>428</v>
+      </c>
+      <c r="L69" t="s">
+        <v>429</v>
       </c>
       <c r="M69" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="N69" t="s">
         <v>99</v>
       </c>
       <c r="O69">
-        <v>55060</v>
+        <v>56277</v>
       </c>
       <c r="P69" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
@@ -4648,10 +4671,10 @@
         <v>345</v>
       </c>
       <c r="C70" t="s">
-        <v>563</v>
-      </c>
-      <c r="D70">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D70" t="s">
+        <v>571</v>
       </c>
       <c r="H70" t="s">
         <v>390</v>
@@ -4663,12 +4686,12 @@
         <v>388</v>
       </c>
       <c r="L70" t="s">
-        <v>538</v>
-      </c>
-      <c r="M70" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="M70" t="s">
         <v>389</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N70" t="s">
         <v>99</v>
       </c>
       <c r="O70">
@@ -4686,10 +4709,10 @@
         <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>563</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D71" t="s">
+        <v>571</v>
       </c>
       <c r="H71" t="s">
         <v>399</v>
@@ -4703,10 +4726,10 @@
       <c r="L71" t="s">
         <v>397</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" t="s">
         <v>398</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N71" t="s">
         <v>99</v>
       </c>
       <c r="O71">
@@ -4718,746 +4741,749 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
-        <v>563</v>
-      </c>
-      <c r="D72">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D72" t="s">
+        <v>571</v>
       </c>
       <c r="H72" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="I72" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="K72" t="s">
-        <v>336</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="N72" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="L72" t="s">
+        <v>531</v>
+      </c>
+      <c r="M72" t="s">
+        <v>369</v>
+      </c>
+      <c r="N72" t="s">
         <v>99</v>
       </c>
       <c r="O72">
-        <v>56347</v>
+        <v>56296</v>
       </c>
       <c r="P72" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C73" t="s">
-        <v>563</v>
-      </c>
-      <c r="D73">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D73" t="s">
+        <v>571</v>
       </c>
       <c r="H73" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I73" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K73" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L73" t="s">
-        <v>532</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="N73" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="M73" t="s">
+        <v>365</v>
+      </c>
+      <c r="N73" t="s">
         <v>99</v>
       </c>
       <c r="O73">
-        <v>56296</v>
+        <v>56520</v>
       </c>
       <c r="P73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>421</v>
       </c>
       <c r="C74" t="s">
-        <v>563</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D74" t="s">
+        <v>571</v>
       </c>
       <c r="H74" t="s">
-        <v>174</v>
+        <v>426</v>
       </c>
       <c r="I74" t="s">
-        <v>175</v>
+        <v>427</v>
       </c>
       <c r="K74" t="s">
-        <v>173</v>
+        <v>423</v>
       </c>
       <c r="L74" t="s">
-        <v>534</v>
+        <v>424</v>
       </c>
       <c r="M74" t="s">
-        <v>14</v>
+        <v>425</v>
       </c>
       <c r="N74" t="s">
         <v>99</v>
       </c>
       <c r="O74">
-        <v>55981</v>
+        <v>56241</v>
       </c>
       <c r="P74" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>478</v>
       </c>
       <c r="C75" t="s">
-        <v>563</v>
-      </c>
-      <c r="D75">
-        <v>7</v>
+        <v>562</v>
+      </c>
+      <c r="D75" t="s">
+        <v>572</v>
       </c>
       <c r="H75" t="s">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="I75" t="s">
-        <v>330</v>
+        <v>499</v>
       </c>
       <c r="K75" t="s">
-        <v>328</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N75" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="L75" t="s">
+        <v>541</v>
+      </c>
+      <c r="M75" t="s">
+        <v>77</v>
+      </c>
+      <c r="N75" t="s">
         <v>99</v>
       </c>
       <c r="O75">
-        <v>56482</v>
+        <v>56431</v>
       </c>
       <c r="P75" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="C76" t="s">
-        <v>563</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D76" t="s">
+        <v>572</v>
       </c>
       <c r="H76" t="s">
-        <v>150</v>
+        <v>505</v>
       </c>
       <c r="I76" t="s">
-        <v>151</v>
+        <v>506</v>
       </c>
       <c r="K76" t="s">
-        <v>149</v>
+        <v>530</v>
+      </c>
+      <c r="L76" t="s">
+        <v>503</v>
       </c>
       <c r="M76" t="s">
-        <v>9</v>
+        <v>504</v>
       </c>
       <c r="N76" t="s">
         <v>99</v>
       </c>
       <c r="O76">
-        <v>56093</v>
+        <v>56601</v>
       </c>
       <c r="P76" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>412</v>
       </c>
       <c r="C77" t="s">
-        <v>563</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="D77" t="s">
+        <v>572</v>
       </c>
       <c r="H77" t="s">
-        <v>258</v>
+        <v>491</v>
       </c>
       <c r="I77" t="s">
-        <v>259</v>
+        <v>492</v>
       </c>
       <c r="K77" t="s">
-        <v>255</v>
+        <v>489</v>
       </c>
       <c r="L77" t="s">
-        <v>256</v>
+        <v>540</v>
       </c>
       <c r="M77" t="s">
-        <v>257</v>
+        <v>490</v>
       </c>
       <c r="N77" t="s">
         <v>99</v>
       </c>
       <c r="O77">
-        <v>56081</v>
+        <v>56484</v>
       </c>
       <c r="P77" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="C78" t="s">
-        <v>563</v>
-      </c>
-      <c r="D78">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D78" t="s">
+        <v>572</v>
       </c>
       <c r="H78" t="s">
-        <v>366</v>
+        <v>483</v>
       </c>
       <c r="I78" t="s">
-        <v>367</v>
+        <v>484</v>
       </c>
       <c r="K78" t="s">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="L78" t="s">
-        <v>536</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N78" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="M78" t="s">
+        <v>482</v>
+      </c>
+      <c r="N78" t="s">
         <v>99</v>
       </c>
       <c r="O78">
-        <v>56520</v>
+        <v>56621</v>
       </c>
       <c r="P78" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>422</v>
       </c>
       <c r="C79" t="s">
-        <v>563</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
+        <v>562</v>
+      </c>
+      <c r="D79" t="s">
+        <v>572</v>
       </c>
       <c r="H79" t="s">
-        <v>185</v>
+        <v>496</v>
       </c>
       <c r="I79" t="s">
-        <v>186</v>
+        <v>497</v>
       </c>
       <c r="K79" t="s">
-        <v>184</v>
+        <v>494</v>
+      </c>
+      <c r="L79" t="s">
+        <v>403</v>
       </c>
       <c r="M79" t="s">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="N79" t="s">
         <v>99</v>
       </c>
       <c r="O79">
-        <v>55987</v>
+        <v>56401</v>
       </c>
       <c r="P79" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C80" t="s">
-        <v>563</v>
-      </c>
-      <c r="D80">
-        <v>8</v>
+        <v>562</v>
+      </c>
+      <c r="D80" t="s">
+        <v>572</v>
       </c>
       <c r="H80" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="I80" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="K80" t="s">
-        <v>424</v>
-      </c>
-      <c r="L80" t="s">
-        <v>425</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="N80" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="M80" t="s">
+        <v>486</v>
+      </c>
+      <c r="N80" t="s">
         <v>99</v>
       </c>
       <c r="O80">
-        <v>56241</v>
+        <v>56470</v>
       </c>
       <c r="P80" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>479</v>
       </c>
       <c r="C81" t="s">
-        <v>563</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>198</v>
+        <v>562</v>
+      </c>
+      <c r="D81" t="s">
+        <v>572</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>501</v>
+      </c>
+      <c r="I81" t="s">
+        <v>502</v>
       </c>
       <c r="K81" t="s">
-        <v>199</v>
-      </c>
-      <c r="L81" t="s">
-        <v>205</v>
+        <v>529</v>
       </c>
       <c r="M81" t="s">
-        <v>194</v>
+        <v>500</v>
       </c>
       <c r="N81" t="s">
         <v>99</v>
       </c>
       <c r="O81">
-        <v>55487</v>
+        <v>55744</v>
       </c>
       <c r="P81" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>383</v>
       </c>
       <c r="C82" t="s">
-        <v>563</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D82" t="s">
+        <v>572</v>
       </c>
       <c r="H82" t="s">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>441</v>
       </c>
       <c r="K82" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="L82" t="s">
-        <v>533</v>
+        <v>438</v>
       </c>
       <c r="M82" t="s">
-        <v>135</v>
+        <v>439</v>
       </c>
       <c r="N82" t="s">
         <v>99</v>
       </c>
       <c r="O82">
-        <v>55118</v>
+        <v>56728</v>
       </c>
       <c r="P82" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>386</v>
       </c>
       <c r="C83" t="s">
-        <v>563</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
+        <v>562</v>
+      </c>
+      <c r="D83" t="s">
+        <v>572</v>
       </c>
       <c r="H83" t="s">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="I83" t="s">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="K83" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="M83" t="s">
-        <v>131</v>
+        <v>450</v>
       </c>
       <c r="N83" t="s">
         <v>99</v>
       </c>
       <c r="O83">
-        <v>55124</v>
+        <v>56649</v>
       </c>
       <c r="P83" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>545</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
-        <v>563</v>
-      </c>
-      <c r="D84">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>292</v>
+        <v>562</v>
+      </c>
+      <c r="D84" t="s">
+        <v>572</v>
       </c>
       <c r="H84" t="s">
-        <v>294</v>
+        <v>447</v>
+      </c>
+      <c r="I84" t="s">
+        <v>448</v>
       </c>
       <c r="K84" t="s">
-        <v>293</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N84" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L84" t="s">
+        <v>445</v>
+      </c>
+      <c r="M84" t="s">
+        <v>446</v>
+      </c>
+      <c r="N84" t="s">
         <v>99</v>
       </c>
       <c r="O84">
-        <v>55802</v>
+        <v>56623</v>
       </c>
       <c r="P84" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>409</v>
       </c>
       <c r="C85" t="s">
-        <v>563</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
-        <v>202</v>
+        <v>562</v>
+      </c>
+      <c r="D85" t="s">
+        <v>572</v>
       </c>
       <c r="H85" t="s">
-        <v>208</v>
+        <v>476</v>
       </c>
       <c r="I85" t="s">
-        <v>209</v>
+        <v>477</v>
       </c>
       <c r="K85" t="s">
-        <v>516</v>
-      </c>
-      <c r="L85" t="s">
-        <v>207</v>
+        <v>475</v>
       </c>
       <c r="M85" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="N85" t="s">
         <v>99</v>
       </c>
       <c r="O85">
-        <v>55401</v>
+        <v>56557</v>
       </c>
       <c r="P85" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>387</v>
       </c>
       <c r="C86" t="s">
-        <v>563</v>
-      </c>
-      <c r="D86">
-        <v>4</v>
-      </c>
-      <c r="E86" t="s">
-        <v>200</v>
+        <v>562</v>
+      </c>
+      <c r="D86" t="s">
+        <v>572</v>
       </c>
       <c r="H86" t="s">
-        <v>195</v>
+        <v>456</v>
+      </c>
+      <c r="I86" t="s">
+        <v>457</v>
       </c>
       <c r="K86" t="s">
-        <v>201</v>
+        <v>453</v>
       </c>
       <c r="L86" t="s">
-        <v>206</v>
+        <v>454</v>
       </c>
       <c r="M86" t="s">
-        <v>194</v>
+        <v>455</v>
       </c>
       <c r="N86" t="s">
         <v>99</v>
       </c>
       <c r="O86">
-        <v>55487</v>
+        <v>56762</v>
       </c>
       <c r="P86" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="C87" t="s">
-        <v>563</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-      <c r="E87" t="s">
-        <v>210</v>
+        <v>562</v>
+      </c>
+      <c r="D87" t="s">
+        <v>572</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>473</v>
+      </c>
+      <c r="I87" t="s">
+        <v>474</v>
       </c>
       <c r="K87" t="s">
-        <v>211</v>
-      </c>
-      <c r="L87" t="s">
-        <v>212</v>
+        <v>527</v>
       </c>
       <c r="M87" t="s">
-        <v>194</v>
+        <v>472</v>
       </c>
       <c r="N87" t="s">
         <v>99</v>
       </c>
       <c r="O87">
-        <v>55487</v>
+        <v>56510</v>
       </c>
       <c r="P87" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>458</v>
       </c>
       <c r="C88" t="s">
-        <v>563</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>218</v>
+        <v>562</v>
+      </c>
+      <c r="D88" t="s">
+        <v>572</v>
       </c>
       <c r="H88" t="s">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="I88" t="s">
-        <v>220</v>
+        <v>461</v>
       </c>
       <c r="K88" t="s">
-        <v>211</v>
-      </c>
-      <c r="L88" t="s">
-        <v>219</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s">
-        <v>194</v>
+        <v>459</v>
       </c>
       <c r="N88" t="s">
         <v>99</v>
       </c>
       <c r="O88">
-        <v>55487</v>
+        <v>56701</v>
       </c>
       <c r="P88" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>544</v>
+        <v>467</v>
       </c>
       <c r="C89" t="s">
-        <v>563</v>
-      </c>
-      <c r="D89">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>290</v>
+        <v>562</v>
+      </c>
+      <c r="D89" t="s">
+        <v>572</v>
       </c>
       <c r="H89" t="s">
-        <v>291</v>
+        <v>470</v>
+      </c>
+      <c r="I89" t="s">
+        <v>471</v>
       </c>
       <c r="K89" t="s">
-        <v>518</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N89" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L89" t="s">
+        <v>468</v>
+      </c>
+      <c r="M89" t="s">
+        <v>469</v>
+      </c>
+      <c r="N89" t="s">
         <v>99</v>
       </c>
       <c r="O89">
-        <v>55746</v>
+        <v>56716</v>
       </c>
       <c r="P89" t="s">
-        <v>35</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>407</v>
       </c>
       <c r="C90" t="s">
-        <v>563</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
+        <v>562</v>
+      </c>
+      <c r="D90" t="s">
+        <v>572</v>
+      </c>
+      <c r="H90" t="s">
+        <v>464</v>
+      </c>
+      <c r="I90" t="s">
+        <v>465</v>
       </c>
       <c r="K90" t="s">
-        <v>511</v>
+        <v>525</v>
+      </c>
+      <c r="L90" t="s">
+        <v>462</v>
       </c>
       <c r="M90" t="s">
-        <v>144</v>
+        <v>463</v>
       </c>
       <c r="N90" t="s">
         <v>99</v>
       </c>
       <c r="O90">
-        <v>55102</v>
+        <v>56750</v>
       </c>
       <c r="P90" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>384</v>
       </c>
       <c r="C91" t="s">
-        <v>563</v>
-      </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-      <c r="E91" t="s">
-        <v>213</v>
+        <v>562</v>
+      </c>
+      <c r="D91" t="s">
+        <v>572</v>
       </c>
       <c r="H91" t="s">
-        <v>216</v>
+        <v>443</v>
       </c>
       <c r="I91" t="s">
-        <v>217</v>
+        <v>444</v>
       </c>
       <c r="K91" t="s">
-        <v>215</v>
+        <v>522</v>
       </c>
       <c r="L91" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="M91" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="N91" t="s">
         <v>99</v>
       </c>
       <c r="O91">
-        <v>55415</v>
+        <v>56751</v>
       </c>
       <c r="P91" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q91">
-    <sortCondition ref="P1:P91"/>
+    <sortCondition ref="D1:D91"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
